--- a/src/main/resources/static/download/goods/goods.xlsx
+++ b/src/main/resources/static/download/goods/goods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yin\service\erp\src\main\resources\static\download\goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9BADB737-623E-49CB-A662-878C78D36191}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574FAE6E-A9A5-49C9-9535-CEED1DF537E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{248E26CF-A0B5-42B3-920A-23AB155886B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>货号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>颜色名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内长名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B9049B-8097-409B-A26C-C35AA6973B47}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,40 +496,37 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
+      <c r="F1" t="s">
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
